--- a/data/EyckDev.stress_Data_FULL_TABLE.xlsx
+++ b/data/EyckDev.stress_Data_FULL_TABLE.xlsx
@@ -2914,13 +2914,13 @@
     <t>latency to first egg sac</t>
   </si>
   <si>
-    <t>Cohen's D</t>
-  </si>
-  <si>
     <t>sv</t>
   </si>
   <si>
     <t>SD.1</t>
+  </si>
+  <si>
+    <t>Cohens.D</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3336,7 @@
   <dimension ref="A1:AM930"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3451,7 +3451,7 @@
         <v>29</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>30</v>
@@ -3466,10 +3466,10 @@
         <v>33</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="AM1" s="6" t="s">
         <v>933</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
